--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82FFFAF4-5C6B-477E-A7D1-D4CA9A94EC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7ECA20-BDE6-4931-B408-B7A81F857702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Book No</t>
   </si>
@@ -158,6 +157,9 @@
   </si>
   <si>
     <t>hjbh</t>
+  </si>
+  <si>
+    <t>hjbh1</t>
   </si>
 </sst>
 </file>
@@ -526,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -704,6 +706,47 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5">
+        <v>87</v>
+      </c>
+      <c r="I5">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>54</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7ECA20-BDE6-4931-B408-B7A81F857702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F17AEB-EC60-4687-8218-8C4FA6FCC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,7 +531,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
         <v>29</v>
       </c>
       <c r="N3">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F17AEB-EC60-4687-8218-8C4FA6FCC09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3194457-AB45-41E1-BE04-131EDB88420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -662,7 +662,7 @@
         <v>29</v>
       </c>
       <c r="N3">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -703,7 +703,7 @@
         <v>40</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -744,7 +744,7 @@
         <v>41</v>
       </c>
       <c r="N5">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -1,40 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3194457-AB45-41E1-BE04-131EDB88420A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9B7BE-AC55-4670-BDA5-963641D1E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>Book No</t>
   </si>
@@ -72,57 +63,6 @@
     <t>Bill_No</t>
   </si>
   <si>
-    <t>holly cow</t>
-  </si>
-  <si>
-    <t>hijfds</t>
-  </si>
-  <si>
-    <t>hghvfhjg</t>
-  </si>
-  <si>
-    <t>hjkgkgvhjgk</t>
-  </si>
-  <si>
-    <t>hj,vbhjkg</t>
-  </si>
-  <si>
-    <t>hv,bjhjk</t>
-  </si>
-  <si>
-    <t>jkkhg</t>
-  </si>
-  <si>
-    <t>hjkgkhjgvgj</t>
-  </si>
-  <si>
-    <t>jkhv</t>
-  </si>
-  <si>
-    <t>dgs</t>
-  </si>
-  <si>
-    <t>hgcygfhjdc</t>
-  </si>
-  <si>
-    <t>hytgfhgkf</t>
-  </si>
-  <si>
-    <t>hhgfghkfhg</t>
-  </si>
-  <si>
-    <t>jhghvhgkvhjkg</t>
-  </si>
-  <si>
-    <t>uhjguhjkghj</t>
-  </si>
-  <si>
-    <t>mnbhjm</t>
-  </si>
-  <si>
-    <t>vhbvh</t>
-  </si>
-  <si>
     <t xml:space="preserve"> vhg</t>
   </si>
   <si>
@@ -132,24 +72,6 @@
     <t>Book Copies</t>
   </si>
   <si>
-    <t>rdfglrsdg</t>
-  </si>
-  <si>
-    <t>hghfchtjgft</t>
-  </si>
-  <si>
-    <t>gfhjgfhgj</t>
-  </si>
-  <si>
-    <t>fhjkgfhjgf</t>
-  </si>
-  <si>
-    <t>hgfhjkgfhjgf</t>
-  </si>
-  <si>
-    <t>hgfghgjkfhg</t>
-  </si>
-  <si>
     <t>nbhijb</t>
   </si>
   <si>
@@ -159,7 +81,40 @@
     <t>hjbh</t>
   </si>
   <si>
-    <t>hjbh1</t>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>requied</t>
+  </si>
+  <si>
+    <t>learning C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">denesh Pathak </t>
+  </si>
+  <si>
+    <t>k ramanujan</t>
+  </si>
+  <si>
+    <t>ph pub.</t>
+  </si>
+  <si>
+    <t>main library</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>zakie m</t>
+  </si>
+  <si>
+    <t>7th</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>jk publishers</t>
   </si>
 </sst>
 </file>
@@ -528,15 +483,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="11" max="13" width="13.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +516,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -577,71 +543,71 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>150</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>6.4</v>
-      </c>
-      <c r="I2">
-        <v>97</v>
-      </c>
-      <c r="J2">
-        <v>351</v>
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>150</v>
+      </c>
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" t="s">
         <v>23</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
       </c>
       <c r="H3">
         <v>545</v>
@@ -652,37 +618,28 @@
       <c r="J3">
         <v>654</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="L3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="G4" t="s">
         <v>29</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" t="s">
-        <v>37</v>
       </c>
       <c r="H4">
         <v>87</v>
@@ -694,56 +651,15 @@
         <v>54</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="N4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5">
-        <v>87</v>
-      </c>
-      <c r="I5">
-        <v>68</v>
-      </c>
-      <c r="J5">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
-      </c>
-      <c r="M5" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5">
         <v>3</v>
       </c>
     </row>

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9B7BE-AC55-4670-BDA5-963641D1E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03852CE-ABFD-468B-8D7C-0A2AA44DF41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Book No</t>
   </si>
@@ -79,12 +79,6 @@
   </si>
   <si>
     <t>hjbh</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>requied</t>
   </si>
   <si>
     <t>learning C</t>
@@ -483,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E477230-9697-4CD6-924B-FB7D80C68E81}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,119 +541,75 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>545</v>
+      </c>
+      <c r="I2">
+        <v>544</v>
+      </c>
+      <c r="J2">
+        <v>654</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>150</v>
-      </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H3">
-        <v>545</v>
+        <v>87</v>
       </c>
       <c r="I3">
-        <v>544</v>
+        <v>68</v>
       </c>
       <c r="J3">
-        <v>654</v>
+        <v>54</v>
+      </c>
+      <c r="K3" t="s">
+        <v>15</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4">
-        <v>87</v>
-      </c>
-      <c r="I4">
-        <v>68</v>
-      </c>
-      <c r="J4">
-        <v>54</v>
-      </c>
-      <c r="K4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4">
         <v>3</v>
       </c>
     </row>

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB9B7BE-AC55-4670-BDA5-963641D1E4BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F41242-6030-416E-A125-608D7E61FB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,23 +486,23 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="11" max="13" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="11" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +546,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -590,9 +590,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -628,7 +628,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A03852CE-ABFD-468B-8D7C-0A2AA44DF41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48153B3B-CA17-4966-A550-2EA98B7E16A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="3864" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,23 +480,23 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="11" max="13" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="11" max="13" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,9 +540,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -578,7 +578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>23</v>
       </c>

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48153B3B-CA17-4966-A550-2EA98B7E16A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02866D8-2981-4B12-ADB5-0EB8B0EEA3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3864" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
@@ -480,7 +480,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02866D8-2981-4B12-ADB5-0EB8B0EEA3EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E07101-15DE-4890-B2A4-F78D05AA3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -480,7 +480,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1100</v>
+        <v>1150</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="N2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">

--- a/Assets/data/Book_insert.xlsx
+++ b/Assets/data/Book_insert.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\LibraryManagement\Assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E07101-15DE-4890-B2A4-F78D05AA3807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68236DB-476F-4591-B818-3933EC538659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8E09630E-FBB8-4CD5-98D8-40C1A54718B3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Book No</t>
   </si>
@@ -96,19 +96,13 @@
     <t>main library</t>
   </si>
   <si>
-    <t>Java</t>
-  </si>
-  <si>
     <t>zakie m</t>
   </si>
   <si>
-    <t>7th</t>
-  </si>
-  <si>
-    <t>2nd</t>
-  </si>
-  <si>
     <t>jk publishers</t>
+  </si>
+  <si>
+    <t>Flutter</t>
   </si>
 </sst>
 </file>
@@ -483,20 +477,20 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
-    <col min="11" max="13" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="11" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,9 +534,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -553,8 +547,8 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
+      <c r="F2">
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -578,18 +572,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20</v>
+      </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
         <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
       </c>
       <c r="H3">
         <v>87</v>
